--- a/project/QUANTRACKHI/Book1.xlsx
+++ b/project/QUANTRACKHI/Book1.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\QUANTRACLUA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projected\TPIOTLab\project\QUANTRACKHI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB3A225-EA44-4936-8BE0-F1889C772FC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5472D21A-E9EC-4A29-A9CF-56CE96CF300B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{DF80CDF8-BB8F-435A-B2DA-B21A7680ADF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{DF80CDF8-BB8F-435A-B2DA-B21A7680ADF5}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Over view" sheetId="2" r:id="rId1"/>
+    <sheet name="data" sheetId="1" r:id="rId2"/>
+    <sheet name="installed Sink" sheetId="3" r:id="rId3"/>
+    <sheet name="installed Node" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="116">
   <si>
     <t>STT</t>
   </si>
@@ -210,13 +213,187 @@
   </si>
   <si>
     <t>lệnh báo mất kết nối tới node</t>
+  </si>
+  <si>
+    <t>Các trường của khí</t>
+  </si>
+  <si>
+    <t>Các trường của thủy sản</t>
+  </si>
+  <si>
+    <t>WS</t>
+  </si>
+  <si>
+    <t>WD</t>
+  </si>
+  <si>
+    <t>Atem</t>
+  </si>
+  <si>
+    <t>Ahum</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>AVPD</t>
+  </si>
+  <si>
+    <t>Ra</t>
+  </si>
+  <si>
+    <t>WTem</t>
+  </si>
+  <si>
+    <t>Dữ liệu vận tốc gió</t>
+  </si>
+  <si>
+    <t>Dữ liệu hướng gió</t>
+  </si>
+  <si>
+    <t>Dữ liệu nhiệt độ không khí</t>
+  </si>
+  <si>
+    <t>Dữ liệu độ ẩm không khí</t>
+  </si>
+  <si>
+    <t>Dữ liệu áp suất khí quyển</t>
+  </si>
+  <si>
+    <t>Dữ liệu độ bão hòa áp suất hơi</t>
+  </si>
+  <si>
+    <t>Dữ liệu lượng mưa</t>
+  </si>
+  <si>
+    <t>Dữ liệu nhiệt độ nước</t>
+  </si>
+  <si>
+    <t>Đơn vị</t>
+  </si>
+  <si>
+    <t>m/s</t>
+  </si>
+  <si>
+    <t>hướng</t>
+  </si>
+  <si>
+    <t>oC</t>
+  </si>
+  <si>
+    <t>%rH</t>
+  </si>
+  <si>
+    <t>Kpa</t>
+  </si>
+  <si>
+    <t>mm/phút</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>mg/kg</t>
+  </si>
+  <si>
+    <t>H+</t>
+  </si>
+  <si>
+    <t>us/cm</t>
+  </si>
+  <si>
+    <t>Sa</t>
+  </si>
+  <si>
+    <t>NH4</t>
+  </si>
+  <si>
+    <t>ppt</t>
+  </si>
+  <si>
+    <t>mg/L</t>
+  </si>
+  <si>
+    <t>{"SS":0,"SID":"SationID","ID":"NODEID","Sa":0}</t>
+  </si>
+  <si>
+    <t>{"SS":0,"SID":"SationID","ID":"NODEID","WS":0}</t>
+  </si>
+  <si>
+    <t>Dữ liệu độ mặn nước</t>
+  </si>
+  <si>
+    <t>Dữ liệu NH4 trong nước</t>
+  </si>
+  <si>
+    <t>Node khí (3)</t>
+  </si>
+  <si>
+    <t>Khoảng: 768 – 1023</t>
+  </si>
+  <si>
+    <t>Khoảng: 512 – 767</t>
+  </si>
+  <si>
+    <t>2 × 256 → 512</t>
+  </si>
+  <si>
+    <t>Node thủy sản (loại = 2)</t>
+  </si>
+  <si>
+    <t>Khoảng: 256 – 511</t>
+  </si>
+  <si>
+    <t>1 × 256 → 256</t>
+  </si>
+  <si>
+    <t>Node lúa (loại = 1)</t>
+  </si>
+  <si>
+    <t>Khoảng: 0 – 255</t>
+  </si>
+  <si>
+    <t>0 × 256 → 0</t>
+  </si>
+  <si>
+    <t>Sink (loại = 0)</t>
+  </si>
+  <si>
+    <t>Sink ID</t>
+  </si>
+  <si>
+    <t>Thủy sản CTU</t>
+  </si>
+  <si>
+    <t>Lúa thoại sơn</t>
+  </si>
+  <si>
+    <t>Địa điểm</t>
+  </si>
+  <si>
+    <t>LÚA</t>
+  </si>
+  <si>
+    <t>THỦY SẢN</t>
+  </si>
+  <si>
+    <t>KHÍ</t>
+  </si>
+  <si>
+    <t>Trại giống Vĩnh Long</t>
+  </si>
+  <si>
+    <t>Lúa thoại sơn truyền thống</t>
+  </si>
+  <si>
+    <t>Lúa thoại sơn hữu cơ (hợp tác xã)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +424,11 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -290,7 +472,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -306,13 +488,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,19 +831,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C6A894D-631F-41D0-B33C-5B513D9E499B}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16.5">
+      <c r="A1" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16.5">
+      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="16.5">
+      <c r="A3" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="16.5">
+      <c r="A4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="16.5">
+      <c r="A5" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="16.5">
+      <c r="A6" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="16.5">
+      <c r="A7" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="16.5">
+      <c r="A8" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="16.5">
+      <c r="A9" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="16.5">
+      <c r="A10" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="16.5">
+      <c r="A11" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3610B78D-A414-4C7C-A47F-C4EB21666F70}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A9" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="1" max="1" width="8.7265625" style="1"/>
-    <col min="2" max="2" width="19.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="40.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="9.6328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="24" customHeight="1">
@@ -750,41 +1009,41 @@
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="8">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="2" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="28" customHeight="1">
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="17" spans="1:4" ht="28" customHeight="1">
       <c r="A17" s="6" t="s">
         <v>0</v>
       </c>
@@ -795,7 +1054,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:4">
       <c r="A18" s="4">
         <v>1</v>
       </c>
@@ -806,7 +1065,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:4">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -817,7 +1076,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:4">
       <c r="A20" s="4">
         <v>3</v>
       </c>
@@ -828,7 +1087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:4">
       <c r="A21" s="4">
         <v>4</v>
       </c>
@@ -839,7 +1098,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>5</v>
       </c>
@@ -850,7 +1109,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>6</v>
       </c>
@@ -861,7 +1120,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:4">
       <c r="A24" s="4">
         <v>7</v>
       </c>
@@ -872,7 +1131,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4">
       <c r="A25" s="4">
         <v>8</v>
       </c>
@@ -883,7 +1142,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>9</v>
       </c>
@@ -894,14 +1153,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="7" t="s">
+    <row r="28" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="30" spans="1:3" ht="33" customHeight="1">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="30" spans="1:4" ht="33" customHeight="1">
       <c r="A30" s="6" t="s">
         <v>0</v>
       </c>
@@ -911,8 +1170,11 @@
       <c r="C30" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>1</v>
       </c>
@@ -922,8 +1184,11 @@
       <c r="C31" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>2</v>
       </c>
@@ -933,8 +1198,11 @@
       <c r="C32" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -944,8 +1212,11 @@
       <c r="C33" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>4</v>
       </c>
@@ -955,8 +1226,11 @@
       <c r="C34" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>5</v>
       </c>
@@ -966,8 +1240,11 @@
       <c r="C35" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>6</v>
       </c>
@@ -977,8 +1254,11 @@
       <c r="C36" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>7</v>
       </c>
@@ -988,8 +1268,11 @@
       <c r="C37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>8</v>
       </c>
@@ -999,22 +1282,668 @@
       <c r="C38" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="7" t="s">
+      <c r="D38" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="8"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="4">
+        <v>1</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="4">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="4">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="4">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="4">
+        <v>5</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="4">
+        <v>6</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="4">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="4">
+        <v>8</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="4">
+        <v>9</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="4">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="4">
+        <v>2</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="4">
+        <v>3</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="4">
+        <v>4</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="4">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A65:C65"/>
     <mergeCell ref="A14:C14"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A28:C28"/>
     <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A55:C55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92EEFD38-8285-4B83-A8B3-15A16A8665EF}">
+  <dimension ref="A3:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15EECD56-F4FF-43D3-86C0-8F5CEDA23FB9}">
+  <dimension ref="A1:C37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="2" width="7.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="17">
+      <c r="A3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="17">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>257</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2">
+        <v>258</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="17">
+      <c r="A6" s="4">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>259</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="17">
+      <c r="A7" s="4">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2">
+        <v>260</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="17">
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2">
+        <v>261</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="17">
+      <c r="A9" s="4">
+        <v>6</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="17">
+      <c r="A10" s="4">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="17">
+      <c r="A11" s="4">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="17">
+      <c r="A12" s="4">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="17">
+      <c r="A16" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="17">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>512</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="17">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" ht="17">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="17">
+      <c r="A20" s="4">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="17">
+      <c r="A21" s="4">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" spans="1:3" ht="17">
+      <c r="A22" s="4">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3" ht="17">
+      <c r="A23" s="4">
+        <v>7</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3" ht="17">
+      <c r="A24" s="4">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3" ht="17">
+      <c r="A25" s="4">
+        <v>9</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="B27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="17">
+      <c r="A28" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="17">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2">
+        <v>769</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="17">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" ht="17">
+      <c r="A31" s="4">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" ht="17">
+      <c r="A32" s="4">
+        <v>4</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3" ht="17">
+      <c r="A33" s="4">
+        <v>5</v>
+      </c>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3" ht="17">
+      <c r="A34" s="4">
+        <v>6</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="1:3" ht="17">
+      <c r="A35" s="4">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3" ht="17">
+      <c r="A36" s="4">
+        <v>8</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="1:3" ht="17">
+      <c r="A37" s="4">
+        <v>9</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>